--- a/SCRUM/SCRUM_TEAM_B.xlsx
+++ b/SCRUM/SCRUM_TEAM_B.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>60min</t>
+  </si>
+  <si>
+    <t>Interfacekonzept für neues Labirinth-Spiel</t>
+  </si>
+  <si>
+    <t>Darsellung neues Spiel für neues Spiel</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,6 +1166,9 @@
       <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1174,6 +1183,9 @@
       <c r="D10" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1186,7 +1198,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1200,7 +1212,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,18 +1228,37 @@
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
